--- a/Model Summary/R-NMR_parameters.xlsx
+++ b/Model Summary/R-NMR_parameters.xlsx
@@ -476,32 +476,30 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[[0.36510943]
- [0.30647374]
- [0.63699097]]</t>
+          <t>[[0.13671448]
+ [0.19953615]]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[[0.14298395]
- [0.09472095]
- [0.09571536]]</t>
+          <t>[[0.04936366]
+ [0.09643506]]</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.5108264003462389</v>
+        <v>-13.08982376364458</v>
       </c>
       <c r="E2" t="n">
-        <v>0.06527953801460848</v>
+        <v>1.905854465522347</v>
       </c>
       <c r="F2" t="n">
-        <v>230</v>
+        <v>605</v>
       </c>
       <c r="G2" t="n">
-        <v>4.319151019743844e-06</v>
+        <v>0.002470721790811755</v>
       </c>
       <c r="H2" t="n">
-        <v>5.232409082169384e-06</v>
+        <v>3.492942118943556e-06</v>
       </c>
     </row>
     <row r="3">
@@ -510,32 +508,30 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[[0.49053379]
- [0.44595255]
- [0.67576616]]</t>
+          <t>[[0.28962374]
+ [0.32301039]]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[[0.13788164]
- [0.10730629]
- [0.17318818]]</t>
+          <t>[[0.05504523]
+ [0.07880078]]</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.7011866428818497</v>
+        <v>-6.958581659110172</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0482403152599308</v>
+        <v>2.156356278357802</v>
       </c>
       <c r="F3" t="n">
-        <v>474</v>
+        <v>2103</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01264791885149242</v>
+        <v>677.1362718322461</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01532224392399579</v>
+        <v>0.9572902189728858</v>
       </c>
     </row>
     <row r="4">
@@ -544,32 +540,30 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[[0.58892211]
- [0.58821176]
- [0.61880023]]</t>
+          <t>[[0.50187401]
+ [0.47949299]]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[[0.19301803]
- [0.12154166]
- [0.23616461]]</t>
+          <t>[[0.05902702]
+ [0.07594088]]</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.8892908113001231</v>
+        <v>1.462141497739971</v>
       </c>
       <c r="E4" t="n">
-        <v>0.05721121442754453</v>
+        <v>2.311052740485469</v>
       </c>
       <c r="F4" t="n">
-        <v>469</v>
+        <v>1662</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3824664484991604</v>
+        <v>30.20815825323609</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4633366394469723</v>
+        <v>0.0427062847346215</v>
       </c>
     </row>
     <row r="5">
@@ -578,32 +572,30 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[[0.7080681 ]
- [0.73706348]
- [0.63629611]]</t>
+          <t>[[0.69167207]
+ [0.62397231]]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[[0.14727959]
- [0.11734425]
- [0.21522277]]</t>
+          <t>[[0.05656477]
+ [0.09711272]]</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.069976658708977</v>
+        <v>9.020256746907991</v>
       </c>
       <c r="E5" t="n">
-        <v>0.05669393981142245</v>
+        <v>2.199247238941765</v>
       </c>
       <c r="F5" t="n">
-        <v>856</v>
+        <v>1370</v>
       </c>
       <c r="G5" t="n">
-        <v>0.417108906362825</v>
+        <v>2.36977646508053e-06</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5053040331143647</v>
+        <v>3.350232332164517e-09</v>
       </c>
     </row>
     <row r="6">
@@ -612,32 +604,30 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[[0.83150065]
- [0.86013732]
- [0.54617118]]</t>
+          <t>[[0.84562973]
+ [0.75218599]]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[[0.09569463]
- [0.08719916]
- [0.19786037]]</t>
+          <t>[[0.0426074 ]
+ [0.10385221]]</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.224688076234942</v>
+        <v>15.21805341621015</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04739467226355146</v>
+        <v>1.61899596546948</v>
       </c>
       <c r="F6" t="n">
-        <v>371</v>
+        <v>260</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01323367209323019</v>
+        <v>1e-10</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01603185110558505</v>
+        <v>1.413733481419594e-13</v>
       </c>
     </row>
   </sheetData>
